--- a/Raw_data/Sequence/New_Sequencing/ILLUMINA_Microbial_Profiling_Amplicon_Sample_Submission_Form_ITS_2024_07_SMM.xlsx
+++ b/Raw_data/Sequence/New_Sequencing/ILLUMINA_Microbial_Profiling_Amplicon_Sample_Submission_Form_ITS_2024_07_SMM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://westernsydneyedu-my.sharepoint.com/personal/90957135_westernsydney_edu_au/Documents/ABS_FIRE/ABS_FIRE_MYCO/Raw_data/Sequence/New_Sequencing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{B25F4EBE-AB71-4B88-8B36-199927D30A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B03195DF-94E5-471E-AFC9-61D263C3490F}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{B25F4EBE-AB71-4B88-8B36-199927D30A66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2579E5C-1F57-462B-ADC8-4FEBA8508ED9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" tabRatio="743" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Micbial_Profiling_Amplicon" sheetId="1" r:id="rId1"/>
@@ -1049,367 +1049,367 @@
     <t>H2O</t>
   </si>
   <si>
-    <t>SMM_01</t>
-  </si>
-  <si>
-    <t>SMM_02</t>
-  </si>
-  <si>
-    <t>SMM_03</t>
-  </si>
-  <si>
-    <t>SMM_04</t>
-  </si>
-  <si>
-    <t>SMM_05</t>
-  </si>
-  <si>
-    <t>SMM_06</t>
-  </si>
-  <si>
-    <t>SMM_07</t>
-  </si>
-  <si>
-    <t>SMM_08</t>
-  </si>
-  <si>
-    <t>SMM_09</t>
-  </si>
-  <si>
-    <t>SMM_10</t>
-  </si>
-  <si>
-    <t>SMM_11</t>
-  </si>
-  <si>
-    <t>SMM_12</t>
-  </si>
-  <si>
-    <t>SMM_13</t>
-  </si>
-  <si>
-    <t>SMM_14</t>
-  </si>
-  <si>
-    <t>SMM_15</t>
-  </si>
-  <si>
-    <t>SMM_16</t>
-  </si>
-  <si>
-    <t>SMM_17</t>
-  </si>
-  <si>
-    <t>SMM_18</t>
-  </si>
-  <si>
-    <t>SMM_19</t>
-  </si>
-  <si>
-    <t>SMM_20</t>
-  </si>
-  <si>
-    <t>SMM_21</t>
-  </si>
-  <si>
-    <t>SMM_22</t>
-  </si>
-  <si>
-    <t>SMM_23</t>
-  </si>
-  <si>
-    <t>SMM_24</t>
-  </si>
-  <si>
-    <t>SMM_25</t>
-  </si>
-  <si>
-    <t>SMM_26</t>
-  </si>
-  <si>
-    <t>SMM_27</t>
-  </si>
-  <si>
-    <t>SMM_28</t>
-  </si>
-  <si>
-    <t>SMM_29</t>
-  </si>
-  <si>
-    <t>SMM_31</t>
-  </si>
-  <si>
-    <t>SMM_32</t>
-  </si>
-  <si>
-    <t>SMM_33</t>
-  </si>
-  <si>
-    <t>SMM_34</t>
-  </si>
-  <si>
-    <t>SMM_35</t>
-  </si>
-  <si>
-    <t>SMM_36</t>
-  </si>
-  <si>
-    <t>SMM_38</t>
-  </si>
-  <si>
-    <t>SMM_39</t>
-  </si>
-  <si>
-    <t>SMM_40</t>
-  </si>
-  <si>
-    <t>SMM_41</t>
-  </si>
-  <si>
-    <t>SMM_42</t>
-  </si>
-  <si>
-    <t>SMM_43</t>
-  </si>
-  <si>
-    <t>SMM_44</t>
-  </si>
-  <si>
-    <t>SMM_45</t>
-  </si>
-  <si>
-    <t>SMM_46</t>
-  </si>
-  <si>
-    <t>SMM_47</t>
-  </si>
-  <si>
-    <t>SMM_48</t>
-  </si>
-  <si>
-    <t>SMM_49</t>
-  </si>
-  <si>
-    <t>SMM_50</t>
-  </si>
-  <si>
-    <t>SMM_51</t>
-  </si>
-  <si>
-    <t>SMM_52</t>
-  </si>
-  <si>
-    <t>SMM_53</t>
-  </si>
-  <si>
-    <t>SMM_54</t>
-  </si>
-  <si>
-    <t>SMM_55</t>
-  </si>
-  <si>
-    <t>SMM_56</t>
-  </si>
-  <si>
-    <t>SMM_57</t>
-  </si>
-  <si>
-    <t>SMM_58</t>
-  </si>
-  <si>
-    <t>SMM_59</t>
-  </si>
-  <si>
-    <t>SMM_60</t>
-  </si>
-  <si>
-    <t>SMM_70</t>
-  </si>
-  <si>
-    <t>SMM_61</t>
-  </si>
-  <si>
-    <t>SMM_62</t>
-  </si>
-  <si>
-    <t>SMM_63</t>
-  </si>
-  <si>
-    <t>SMM_64</t>
-  </si>
-  <si>
-    <t>SMM_65</t>
-  </si>
-  <si>
-    <t>SMM_66</t>
-  </si>
-  <si>
-    <t>SMM_67</t>
-  </si>
-  <si>
-    <t>SMM_68</t>
-  </si>
-  <si>
-    <t>SMM_69</t>
-  </si>
-  <si>
-    <t>SMM_72</t>
-  </si>
-  <si>
-    <t>SMM_73</t>
-  </si>
-  <si>
-    <t>SMM_74</t>
-  </si>
-  <si>
-    <t>SMM_75</t>
-  </si>
-  <si>
-    <t>SMM_76</t>
-  </si>
-  <si>
-    <t>SMM_77</t>
-  </si>
-  <si>
-    <t>SMM_78</t>
-  </si>
-  <si>
-    <t>SMM_79</t>
-  </si>
-  <si>
-    <t>SMM_80</t>
-  </si>
-  <si>
-    <t>SMM_81</t>
-  </si>
-  <si>
-    <t>SMM_82</t>
-  </si>
-  <si>
-    <t>SMM_83</t>
-  </si>
-  <si>
-    <t>SMM_84</t>
-  </si>
-  <si>
-    <t>SMM_85</t>
-  </si>
-  <si>
-    <t>SMM_86</t>
-  </si>
-  <si>
-    <t>SMM_87</t>
-  </si>
-  <si>
-    <t>SMM_88</t>
-  </si>
-  <si>
-    <t>SMM_89</t>
-  </si>
-  <si>
-    <t>SMM_90</t>
-  </si>
-  <si>
-    <t>SMM_91</t>
-  </si>
-  <si>
-    <t>SMM_92</t>
-  </si>
-  <si>
-    <t>SMM_94</t>
-  </si>
-  <si>
-    <t>SMM_95_96</t>
-  </si>
-  <si>
-    <t>SMM_5T1</t>
-  </si>
-  <si>
-    <t>SMM_7T1</t>
-  </si>
-  <si>
-    <t>SMM_7T2</t>
-  </si>
-  <si>
-    <t>SMM_8T1</t>
-  </si>
-  <si>
-    <t>SMM_10T2</t>
-  </si>
-  <si>
-    <t>SMM_T1</t>
-  </si>
-  <si>
-    <t>SMM_26T1_2</t>
-  </si>
-  <si>
-    <t>SMM_26T2</t>
-  </si>
-  <si>
-    <t>SMM_31T2</t>
-  </si>
-  <si>
-    <t>SMM_31T1</t>
-  </si>
-  <si>
-    <t>SMM_34T1</t>
-  </si>
-  <si>
-    <t>SMM_34T2</t>
-  </si>
-  <si>
-    <t>SMM_49T2</t>
-  </si>
-  <si>
-    <t>SMM_56T2</t>
-  </si>
-  <si>
-    <t>JP_201</t>
-  </si>
-  <si>
-    <t>JP_202</t>
-  </si>
-  <si>
-    <t>JP_203</t>
-  </si>
-  <si>
-    <t>JP_204</t>
-  </si>
-  <si>
-    <t>JP_205</t>
-  </si>
-  <si>
-    <t>JP_206</t>
-  </si>
-  <si>
-    <t>JP_207</t>
-  </si>
-  <si>
-    <t>JP_208</t>
-  </si>
-  <si>
-    <t>JP_209</t>
-  </si>
-  <si>
-    <t>JP_210</t>
-  </si>
-  <si>
-    <t>JP_211</t>
-  </si>
-  <si>
-    <t>JP_212</t>
-  </si>
-  <si>
-    <t>JP_213</t>
-  </si>
-  <si>
-    <t>JP_214</t>
-  </si>
-  <si>
-    <t>JP_215</t>
-  </si>
-  <si>
     <t>&lt;10</t>
+  </si>
+  <si>
+    <t>SMM01</t>
+  </si>
+  <si>
+    <t>SMM02</t>
+  </si>
+  <si>
+    <t>SMM03</t>
+  </si>
+  <si>
+    <t>SMM04</t>
+  </si>
+  <si>
+    <t>SMM05</t>
+  </si>
+  <si>
+    <t>SMM06</t>
+  </si>
+  <si>
+    <t>SMM07</t>
+  </si>
+  <si>
+    <t>SMM08</t>
+  </si>
+  <si>
+    <t>SMM09</t>
+  </si>
+  <si>
+    <t>SMM10</t>
+  </si>
+  <si>
+    <t>SMM11</t>
+  </si>
+  <si>
+    <t>SMM12</t>
+  </si>
+  <si>
+    <t>SMM13</t>
+  </si>
+  <si>
+    <t>SMM14</t>
+  </si>
+  <si>
+    <t>SMM15</t>
+  </si>
+  <si>
+    <t>SMM16</t>
+  </si>
+  <si>
+    <t>SMM17</t>
+  </si>
+  <si>
+    <t>SMM18</t>
+  </si>
+  <si>
+    <t>SMM19</t>
+  </si>
+  <si>
+    <t>SMM20</t>
+  </si>
+  <si>
+    <t>SMM21</t>
+  </si>
+  <si>
+    <t>SMM22</t>
+  </si>
+  <si>
+    <t>SMM23</t>
+  </si>
+  <si>
+    <t>SMM24</t>
+  </si>
+  <si>
+    <t>SMM25</t>
+  </si>
+  <si>
+    <t>SMM26</t>
+  </si>
+  <si>
+    <t>SMM27</t>
+  </si>
+  <si>
+    <t>SMM28</t>
+  </si>
+  <si>
+    <t>SMM29</t>
+  </si>
+  <si>
+    <t>SMM31</t>
+  </si>
+  <si>
+    <t>SMM32</t>
+  </si>
+  <si>
+    <t>SMM33</t>
+  </si>
+  <si>
+    <t>SMM34</t>
+  </si>
+  <si>
+    <t>SMM35</t>
+  </si>
+  <si>
+    <t>SMM36</t>
+  </si>
+  <si>
+    <t>SMM38</t>
+  </si>
+  <si>
+    <t>SMM39</t>
+  </si>
+  <si>
+    <t>SMM40</t>
+  </si>
+  <si>
+    <t>SMM41</t>
+  </si>
+  <si>
+    <t>SMM42</t>
+  </si>
+  <si>
+    <t>SMM43</t>
+  </si>
+  <si>
+    <t>SMM44</t>
+  </si>
+  <si>
+    <t>SMM45</t>
+  </si>
+  <si>
+    <t>SMM46</t>
+  </si>
+  <si>
+    <t>SMM47</t>
+  </si>
+  <si>
+    <t>SMM48</t>
+  </si>
+  <si>
+    <t>SMM49</t>
+  </si>
+  <si>
+    <t>SMM50</t>
+  </si>
+  <si>
+    <t>SMM51</t>
+  </si>
+  <si>
+    <t>SMM52</t>
+  </si>
+  <si>
+    <t>SMM53</t>
+  </si>
+  <si>
+    <t>SMM54</t>
+  </si>
+  <si>
+    <t>SMM55</t>
+  </si>
+  <si>
+    <t>SMM56</t>
+  </si>
+  <si>
+    <t>SMM57</t>
+  </si>
+  <si>
+    <t>SMM58</t>
+  </si>
+  <si>
+    <t>SMM59</t>
+  </si>
+  <si>
+    <t>SMM60</t>
+  </si>
+  <si>
+    <t>SMM61</t>
+  </si>
+  <si>
+    <t>SMM62</t>
+  </si>
+  <si>
+    <t>SMM63</t>
+  </si>
+  <si>
+    <t>SMM64</t>
+  </si>
+  <si>
+    <t>SMM65</t>
+  </si>
+  <si>
+    <t>SMM66</t>
+  </si>
+  <si>
+    <t>SMM67</t>
+  </si>
+  <si>
+    <t>SMM68</t>
+  </si>
+  <si>
+    <t>SMM69</t>
+  </si>
+  <si>
+    <t>SMM70</t>
+  </si>
+  <si>
+    <t>SMM72</t>
+  </si>
+  <si>
+    <t>SMM73</t>
+  </si>
+  <si>
+    <t>SMM74</t>
+  </si>
+  <si>
+    <t>SMM75</t>
+  </si>
+  <si>
+    <t>SMM76</t>
+  </si>
+  <si>
+    <t>SMM77</t>
+  </si>
+  <si>
+    <t>SMM78</t>
+  </si>
+  <si>
+    <t>SMM79</t>
+  </si>
+  <si>
+    <t>SMM80</t>
+  </si>
+  <si>
+    <t>SMM81</t>
+  </si>
+  <si>
+    <t>SMM82</t>
+  </si>
+  <si>
+    <t>SMM83</t>
+  </si>
+  <si>
+    <t>SMM84</t>
+  </si>
+  <si>
+    <t>SMM85</t>
+  </si>
+  <si>
+    <t>SMM86</t>
+  </si>
+  <si>
+    <t>SMM87</t>
+  </si>
+  <si>
+    <t>SMM88</t>
+  </si>
+  <si>
+    <t>SMM89</t>
+  </si>
+  <si>
+    <t>SMM90</t>
+  </si>
+  <si>
+    <t>SMM91</t>
+  </si>
+  <si>
+    <t>SMM92</t>
+  </si>
+  <si>
+    <t>SMM94</t>
+  </si>
+  <si>
+    <t>SMM95A96</t>
+  </si>
+  <si>
+    <t>SMM5T1</t>
+  </si>
+  <si>
+    <t>SMM7T1</t>
+  </si>
+  <si>
+    <t>SMM7T2</t>
+  </si>
+  <si>
+    <t>SMM8T1</t>
+  </si>
+  <si>
+    <t>SMM10T2</t>
+  </si>
+  <si>
+    <t>SMM11T1</t>
+  </si>
+  <si>
+    <t>SMM26T1A2</t>
+  </si>
+  <si>
+    <t>SMM26T2</t>
+  </si>
+  <si>
+    <t>SMM31T1</t>
+  </si>
+  <si>
+    <t>SMM31T2</t>
+  </si>
+  <si>
+    <t>SMM34T1</t>
+  </si>
+  <si>
+    <t>SMM34T2</t>
+  </si>
+  <si>
+    <t>SMM49T2</t>
+  </si>
+  <si>
+    <t>JP201</t>
+  </si>
+  <si>
+    <t>JP202</t>
+  </si>
+  <si>
+    <t>JP203</t>
+  </si>
+  <si>
+    <t>JP204</t>
+  </si>
+  <si>
+    <t>JP205</t>
+  </si>
+  <si>
+    <t>JP206</t>
+  </si>
+  <si>
+    <t>JP207</t>
+  </si>
+  <si>
+    <t>JP208</t>
+  </si>
+  <si>
+    <t>JP209</t>
+  </si>
+  <si>
+    <t>JP210</t>
+  </si>
+  <si>
+    <t>JP211</t>
+  </si>
+  <si>
+    <t>JP212</t>
+  </si>
+  <si>
+    <t>JP213</t>
+  </si>
+  <si>
+    <t>JP214</t>
+  </si>
+  <si>
+    <t>JP215</t>
+  </si>
+  <si>
+    <t>SMM56T1</t>
   </si>
 </sst>
 </file>
@@ -3372,8 +3372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T349"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A133" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N160" sqref="N160"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A131" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="53" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B53" s="56" t="s">
         <v>109</v>
@@ -4104,7 +4104,7 @@
     </row>
     <row r="54" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B54" s="56" t="s">
         <v>109</v>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="55" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B55" s="56" t="s">
         <v>109</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="56" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B56" s="56" t="s">
         <v>109</v>
@@ -4233,7 +4233,7 @@
     </row>
     <row r="57" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="49" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B57" s="56" t="s">
         <v>109</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="58" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B58" s="56" t="s">
         <v>109</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="59" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="49" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B59" s="56" t="s">
         <v>109</v>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="60" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B60" s="56" t="s">
         <v>109</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="61" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B61" s="56" t="s">
         <v>109</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="62" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B62" s="56" t="s">
         <v>109</v>
@@ -4491,7 +4491,7 @@
     </row>
     <row r="63" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B63" s="56" t="s">
         <v>109</v>
@@ -4534,7 +4534,7 @@
     </row>
     <row r="64" spans="1:19" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B64" s="56" t="s">
         <v>109</v>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="65" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>109</v>
@@ -4620,7 +4620,7 @@
     </row>
     <row r="66" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B66" s="56" t="s">
         <v>109</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="67" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B67" s="56" t="s">
         <v>109</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="68" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="49" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B68" s="56" t="s">
         <v>109</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="69" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="49" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B69" s="56" t="s">
         <v>109</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="70" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="49" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B70" s="56" t="s">
         <v>109</v>
@@ -4835,7 +4835,7 @@
     </row>
     <row r="71" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B71" s="56" t="s">
         <v>109</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="72" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="49" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B72" s="56" t="s">
         <v>109</v>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="73" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B73" s="56" t="s">
         <v>109</v>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="74" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B74" s="56" t="s">
         <v>109</v>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="75" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="49" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B75" s="56" t="s">
         <v>109</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="76" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="49" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B76" s="56" t="s">
         <v>109</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="77" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="49" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B77" s="56" t="s">
         <v>109</v>
@@ -5136,7 +5136,7 @@
     </row>
     <row r="78" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B78" s="56" t="s">
         <v>109</v>
@@ -5179,7 +5179,7 @@
     </row>
     <row r="79" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B79" s="56" t="s">
         <v>109</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="80" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B80" s="56" t="s">
         <v>109</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="81" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B81" s="56" t="s">
         <v>109</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="82" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="49" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B82" s="56" t="s">
         <v>109</v>
@@ -5351,7 +5351,7 @@
     </row>
     <row r="83" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B83" s="56" t="s">
         <v>109</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="84" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="49" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B84" s="56" t="s">
         <v>109</v>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="85" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B85" s="56" t="s">
         <v>109</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="86" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B86" s="56" t="s">
         <v>109</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="87" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="49" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B87" s="56" t="s">
         <v>109</v>
@@ -5566,7 +5566,7 @@
     </row>
     <row r="88" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="49" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B88" s="56" t="s">
         <v>109</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="89" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="49" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B89" s="56" t="s">
         <v>109</v>
@@ -5652,7 +5652,7 @@
     </row>
     <row r="90" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B90" s="56" t="s">
         <v>109</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="91" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="49" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B91" s="56" t="s">
         <v>109</v>
@@ -5738,7 +5738,7 @@
     </row>
     <row r="92" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="49" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B92" s="56" t="s">
         <v>109</v>
@@ -5781,7 +5781,7 @@
     </row>
     <row r="93" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="49" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B93" s="56" t="s">
         <v>109</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="94" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B94" s="56" t="s">
         <v>109</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="95" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="49" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B95" s="56" t="s">
         <v>109</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="96" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B96" s="56" t="s">
         <v>109</v>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="97" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B97" s="56" t="s">
         <v>109</v>
@@ -5996,7 +5996,7 @@
     </row>
     <row r="98" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="49" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B98" s="56" t="s">
         <v>109</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="99" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="49" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B99" s="56" t="s">
         <v>109</v>
@@ -6082,7 +6082,7 @@
     </row>
     <row r="100" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="49" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B100" s="56" t="s">
         <v>109</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="101" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B101" s="56" t="s">
         <v>109</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="102" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="49" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B102" s="56" t="s">
         <v>109</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="103" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="49" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B103" s="56" t="s">
         <v>109</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="104" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="49" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B104" s="56" t="s">
         <v>109</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="105" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B105" s="56" t="s">
         <v>109</v>
@@ -6340,7 +6340,7 @@
     </row>
     <row r="106" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B106" s="56" t="s">
         <v>109</v>
@@ -6383,7 +6383,7 @@
     </row>
     <row r="107" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B107" s="56" t="s">
         <v>109</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="108" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B108" s="56" t="s">
         <v>109</v>
@@ -6469,7 +6469,7 @@
     </row>
     <row r="109" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="49" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B109" s="56" t="s">
         <v>109</v>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="110" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="49" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B110" s="56" t="s">
         <v>109</v>
@@ -6942,7 +6942,7 @@
     </row>
     <row r="120" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="49" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B120" s="56" t="s">
         <v>109</v>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="121" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="49" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B121" s="56" t="s">
         <v>109</v>
@@ -7028,7 +7028,7 @@
     </row>
     <row r="122" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B122" s="56" t="s">
         <v>109</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="123" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="49" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B123" s="56" t="s">
         <v>109</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="124" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="49" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B124" s="56" t="s">
         <v>109</v>
@@ -7157,7 +7157,7 @@
     </row>
     <row r="125" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="49" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B125" s="56" t="s">
         <v>109</v>
@@ -7200,7 +7200,7 @@
     </row>
     <row r="126" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="49" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B126" s="56" t="s">
         <v>109</v>
@@ -7243,7 +7243,7 @@
     </row>
     <row r="127" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="49" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B127" s="56" t="s">
         <v>109</v>
@@ -7286,7 +7286,7 @@
     </row>
     <row r="128" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B128" s="56" t="s">
         <v>109</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="129" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="49" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B129" s="56" t="s">
         <v>109</v>
@@ -7372,7 +7372,7 @@
     </row>
     <row r="130" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="49" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B130" s="56" t="s">
         <v>109</v>
@@ -7415,7 +7415,7 @@
     </row>
     <row r="131" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B131" s="56" t="s">
         <v>109</v>
@@ -7458,7 +7458,7 @@
     </row>
     <row r="132" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B132" s="56" t="s">
         <v>109</v>
@@ -7501,7 +7501,7 @@
     </row>
     <row r="133" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="49" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B133" s="56" t="s">
         <v>109</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="134" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="49" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B134" s="56" t="s">
         <v>109</v>
@@ -7587,7 +7587,7 @@
     </row>
     <row r="135" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="49" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B135" s="56" t="s">
         <v>109</v>
@@ -7630,7 +7630,7 @@
     </row>
     <row r="136" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="49" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B136" s="56" t="s">
         <v>109</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="137" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="49" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B137" s="56" t="s">
         <v>109</v>
@@ -7716,7 +7716,7 @@
     </row>
     <row r="138" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="49" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B138" s="56" t="s">
         <v>109</v>
@@ -7759,7 +7759,7 @@
     </row>
     <row r="139" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="49" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B139" s="56" t="s">
         <v>109</v>
@@ -7802,7 +7802,7 @@
     </row>
     <row r="140" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="49" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B140" s="56" t="s">
         <v>109</v>
@@ -7845,7 +7845,7 @@
     </row>
     <row r="141" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="49" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B141" s="56" t="s">
         <v>109</v>
@@ -7888,7 +7888,7 @@
     </row>
     <row r="142" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="49" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B142" s="56" t="s">
         <v>109</v>
@@ -7931,7 +7931,7 @@
     </row>
     <row r="143" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B143" s="56" t="s">
         <v>109</v>
@@ -7974,7 +7974,7 @@
     </row>
     <row r="144" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="49" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B144" s="56" t="s">
         <v>109</v>
@@ -8017,7 +8017,7 @@
     </row>
     <row r="145" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="49" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B145" s="56" t="s">
         <v>109</v>
@@ -8060,7 +8060,7 @@
     </row>
     <row r="146" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="49" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B146" s="56" t="s">
         <v>109</v>
@@ -8137,7 +8137,7 @@
     </row>
     <row r="149" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="49" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B149" s="56" t="s">
         <v>109</v>
@@ -8180,7 +8180,7 @@
     </row>
     <row r="150" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B150" s="56" t="s">
         <v>109</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="151" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B151" s="56" t="s">
         <v>109</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="152" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="49" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B152" s="56" t="s">
         <v>109</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="153" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="49" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B153" s="56" t="s">
         <v>109</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="155" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="49" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B155" s="56" t="s">
         <v>109</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="156" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B156" s="56" t="s">
         <v>109</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="157" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B157" s="56" t="s">
         <v>109</v>
@@ -8524,7 +8524,7 @@
     </row>
     <row r="158" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B158" s="56" t="s">
         <v>109</v>
@@ -8567,7 +8567,7 @@
     </row>
     <row r="159" spans="1:15" s="18" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="49" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="B159" s="56" t="s">
         <v>109</v>
@@ -8688,7 +8688,7 @@
         <v>223</v>
       </c>
       <c r="N161" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O161" s="49">
         <v>20</v>
@@ -8731,7 +8731,7 @@
         <v>223</v>
       </c>
       <c r="N162" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O162" s="49">
         <v>20</v>
@@ -8774,7 +8774,7 @@
         <v>223</v>
       </c>
       <c r="N163" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O163" s="49">
         <v>20</v>
@@ -8817,7 +8817,7 @@
         <v>223</v>
       </c>
       <c r="N164" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O164" s="49">
         <v>20</v>
@@ -8860,7 +8860,7 @@
         <v>223</v>
       </c>
       <c r="N165" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O165" s="49">
         <v>20</v>
@@ -8903,7 +8903,7 @@
         <v>223</v>
       </c>
       <c r="N166" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O166" s="49">
         <v>20</v>
@@ -8946,7 +8946,7 @@
         <v>223</v>
       </c>
       <c r="N167" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O167" s="49">
         <v>20</v>
@@ -8989,7 +8989,7 @@
         <v>223</v>
       </c>
       <c r="N168" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O168" s="49">
         <v>20</v>
@@ -9032,7 +9032,7 @@
         <v>223</v>
       </c>
       <c r="N169" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O169" s="49">
         <v>20</v>
@@ -9075,7 +9075,7 @@
         <v>223</v>
       </c>
       <c r="N170" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O170" s="49">
         <v>21</v>
@@ -9118,7 +9118,7 @@
         <v>223</v>
       </c>
       <c r="N171" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O171" s="49">
         <v>22</v>
@@ -9161,7 +9161,7 @@
         <v>223</v>
       </c>
       <c r="N172" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O172" s="49">
         <v>23</v>
@@ -9204,7 +9204,7 @@
         <v>223</v>
       </c>
       <c r="N173" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O173" s="49">
         <v>24</v>
@@ -9247,7 +9247,7 @@
         <v>223</v>
       </c>
       <c r="N174" s="49" t="s">
-        <v>344</v>
+        <v>224</v>
       </c>
       <c r="O174" s="49">
         <v>25</v>
